--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2023.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2023.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,252 +452,42 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NADIA JJEE</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>K2574857</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>345684644354646431654653</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>222/RABAT /AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>13333.33</v>
+        <v>24000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K3">
-        <v>11333.33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve">MED FARID </v>
-      </c>
-      <c r="B4" t="str">
-        <v>F4767464</v>
-      </c>
-      <c r="C4" t="str">
-        <v>354697496468748943641872</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G4" t="str">
-        <v>222/RABAT /AV1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>1666.67</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1666.67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>LATIFA FIFA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>M564634</v>
-      </c>
-      <c r="C5" t="str">
-        <v>364637456748867645476874</v>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>ATTIJARI</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G5" t="str">
-        <v>222/RABAT /AV1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>5000</v>
-      </c>
-      <c r="J5">
-        <v>500</v>
-      </c>
-      <c r="K5">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>MERYEM RARA</v>
-      </c>
-      <c r="B6" t="str">
-        <v>L5453746</v>
-      </c>
-      <c r="C6" t="str">
-        <v>136569764674769764567897</v>
-      </c>
-      <c r="D6" t="str">
-        <v>CASA BB2</v>
-      </c>
-      <c r="E6" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G6" t="str">
-        <v>966/RABAT SUP1/AV1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>3000</v>
-      </c>
-      <c r="J6">
-        <v>300</v>
-      </c>
-      <c r="K6">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>LAILA JJJJ</v>
-      </c>
-      <c r="B7" t="str">
-        <v>KL254545</v>
-      </c>
-      <c r="C7" t="str">
-        <v>546846468478674454687487</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G7" t="str">
-        <v>966/RABAT SUP1/AV1</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>4500</v>
-      </c>
-      <c r="J7">
-        <v>450</v>
-      </c>
-      <c r="K7">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>STE LOC 10</v>
-      </c>
-      <c r="B8" t="str">
-        <v>354643</v>
-      </c>
-      <c r="C8" t="str">
-        <v>656876416874687894351534</v>
-      </c>
-      <c r="D8" t="str">
-        <v>CASA 2</v>
-      </c>
-      <c r="E8" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G8" t="str">
-        <v>966/RABAT SUP1/AV1</v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>7500</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I9">
-        <v>59000</v>
-      </c>
-      <c r="J9">
-        <v>4450</v>
-      </c>
-      <c r="K9">
-        <v>54550</v>
+        <v>22800</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2023.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_3_2023.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">ALAAL JAJA </v>
+        <v>JALAL MED</v>
       </c>
       <c r="B2" t="str">
-        <v>L3563563</v>
+        <v>J2545456</v>
       </c>
       <c r="C2" t="str">
-        <v>564645654874354168748644</v>
+        <v>265463456416547645654645</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>AGG</v>
       </c>
       <c r="E2" t="str">
         <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v>800/PV FES 1</v>
+        <v>220/LF/CASA NORD</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K2">
-        <v>22800</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BJ36877</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>AOURIR</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>220/CASA NORD</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="J3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K3">
-        <v>22800</v>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve">VAVA FAFA </v>
+      </c>
+      <c r="B4" t="str">
+        <v>H354534</v>
+      </c>
+      <c r="C4" t="str">
+        <v>656546476874546874254687</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v>233/DR1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>5000</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>KJKKOPPP JKLML</v>
+      </c>
+      <c r="B5" t="str">
+        <v>5665653</v>
+      </c>
+      <c r="C5" t="str">
+        <v>256356556565656565656565</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve">114/FES </v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>6500</v>
+      </c>
+      <c r="J5">
+        <v>650</v>
+      </c>
+      <c r="K5">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6">
+        <v>28500</v>
+      </c>
+      <c r="J6">
+        <v>3450</v>
+      </c>
+      <c r="K6">
+        <v>25050</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>